--- a/working files/speed comparison.xlsx
+++ b/working files/speed comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dengmingzhuo\Desktop\google drive\CSEC thesis\ParallelDefault\working files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6F5043-828F-4AF3-A148-ECC484CF8140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA687D9-82D0-441B-8B64-77EAF702D3F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{35A4A1FE-7142-40D0-85CA-7217F6687C1A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>sumdef1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,38 @@
   </si>
   <si>
     <t>600*600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def_add_old</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vr_old</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value of Defualt GPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decision GPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value of Repayment GPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value of Default CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>old</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stdpar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +298,7 @@
                   <c:v>sumdef1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>VD_total</c:v>
+                  <c:v>Value of Defualt GPU</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>vr_C</c:v>
@@ -287,7 +319,7 @@
                   <c:v>reduce</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>VR_total</c:v>
+                  <c:v>Value of Repayment GPU</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>decide</c:v>
@@ -299,7 +331,7 @@
                   <c:v>Price_calc</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>DECIDE_total</c:v>
+                  <c:v>Decision GPU</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>errs</c:v>
@@ -400,7 +432,7 @@
                   <c:v>sumdef1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>VD_total</c:v>
+                  <c:v>Value of Defualt GPU</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>vr_C</c:v>
@@ -421,7 +453,7 @@
                   <c:v>reduce</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>VR_total</c:v>
+                  <c:v>Value of Repayment GPU</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>decide</c:v>
@@ -433,7 +465,7 @@
                   <c:v>Price_calc</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>DECIDE_total</c:v>
+                  <c:v>Decision GPU</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>errs</c:v>
@@ -534,7 +566,7 @@
                   <c:v>sumdef1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>VD_total</c:v>
+                  <c:v>Value of Defualt GPU</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>vr_C</c:v>
@@ -555,7 +587,7 @@
                   <c:v>reduce</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>VR_total</c:v>
+                  <c:v>Value of Repayment GPU</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>decide</c:v>
@@ -567,7 +599,7 @@
                   <c:v>Price_calc</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>DECIDE_total</c:v>
+                  <c:v>Decision GPU</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>errs</c:v>
@@ -635,7 +667,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -668,7 +700,7 @@
                   <c:v>sumdef1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>VD_total</c:v>
+                  <c:v>Value of Defualt GPU</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>vr_C</c:v>
@@ -689,7 +721,7 @@
                   <c:v>reduce</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>VR_total</c:v>
+                  <c:v>Value of Repayment GPU</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>decide</c:v>
@@ -701,7 +733,7 @@
                   <c:v>Price_calc</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>DECIDE_total</c:v>
+                  <c:v>Decision GPU</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>errs</c:v>
@@ -714,7 +746,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$17</c:f>
+              <c:f>Sheet1!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -769,7 +801,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -802,7 +834,7 @@
                   <c:v>sumdef1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>VD_total</c:v>
+                  <c:v>Value of Defualt GPU</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>vr_C</c:v>
@@ -823,7 +855,7 @@
                   <c:v>reduce</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>VR_total</c:v>
+                  <c:v>Value of Repayment GPU</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>decide</c:v>
@@ -835,7 +867,7 @@
                   <c:v>Price_calc</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>DECIDE_total</c:v>
+                  <c:v>Decision GPU</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>errs</c:v>
@@ -848,7 +880,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$17</c:f>
+              <c:f>Sheet1!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1142,7 +1174,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t> of Main Computation Parts </a:t>
+              <a:t> of Main Computation Parts (in </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" altLang="zh-CN" baseline="0"/>
+              <a:t>μ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>s) </a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
@@ -1192,7 +1232,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VD_total</c:v>
+                  <c:v>Value of Defualt GPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1223,10 +1263,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2500</c:v>
                 </c:pt>
@@ -1237,9 +1277,12 @@
                   <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>90000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>250000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1247,10 +1290,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$F$4</c:f>
+              <c:f>Sheet1!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>230.4</c:v>
                 </c:pt>
@@ -1261,9 +1304,12 @@
                   <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>608</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>761</c:v>
                 </c:pt>
               </c:numCache>
@@ -1285,7 +1331,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VR_total</c:v>
+                  <c:v>Value of Repayment GPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1322,10 +1368,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2500</c:v>
                 </c:pt>
@@ -1336,9 +1382,12 @@
                   <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>90000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>250000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1346,10 +1395,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$F$11</c:f>
+              <c:f>Sheet1!$B$11:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>243.899</c:v>
                 </c:pt>
@@ -1360,9 +1409,12 @@
                   <c:v>767.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>874.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1120.55</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1674.3</c:v>
                 </c:pt>
               </c:numCache>
@@ -1384,7 +1436,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DECIDE_total</c:v>
+                  <c:v>Decision GPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1424,10 +1476,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2500</c:v>
                 </c:pt>
@@ -1438,9 +1490,12 @@
                   <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>90000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>250000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1448,10 +1503,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$F$15</c:f>
+              <c:f>Sheet1!$B$15:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>105.1</c:v>
                 </c:pt>
@@ -1462,9 +1517,12 @@
                   <c:v>392.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>964</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1352.9</c:v>
                 </c:pt>
               </c:numCache>
@@ -1537,13 +1595,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>2500</c:v>
                       </c:pt>
@@ -1554,9 +1612,12 @@
                         <c:v>30000</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>90000</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>250000</c:v>
                       </c:pt>
                     </c:numCache>
@@ -1567,13 +1628,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$F$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$G$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -1633,13 +1694,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>2500</c:v>
                       </c:pt>
@@ -1650,9 +1711,12 @@
                         <c:v>30000</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>90000</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>250000</c:v>
                       </c:pt>
                     </c:numCache>
@@ -1663,13 +1727,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$3:$F$3</c15:sqref>
+                          <c15:sqref>Sheet1!$B$3:$G$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>230.4</c:v>
                       </c:pt>
@@ -1680,9 +1744,12 @@
                         <c:v>268</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>321</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>608</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>761</c:v>
                       </c:pt>
                     </c:numCache>
@@ -1744,13 +1811,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>2500</c:v>
                       </c:pt>
@@ -1761,9 +1828,12 @@
                         <c:v>30000</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>90000</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>250000</c:v>
                       </c:pt>
                     </c:numCache>
@@ -1774,13 +1844,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$5:$F$5</c15:sqref>
+                          <c15:sqref>Sheet1!$B$5:$G$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>19.100000000000001</c:v>
                       </c:pt>
@@ -1791,9 +1861,12 @@
                         <c:v>88.2</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>95.2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>90.95</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>163</c:v>
                       </c:pt>
                     </c:numCache>
@@ -1855,13 +1928,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>2500</c:v>
                       </c:pt>
@@ -1872,9 +1945,12 @@
                         <c:v>30000</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>90000</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>250000</c:v>
                       </c:pt>
                     </c:numCache>
@@ -1885,13 +1961,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$6:$F$6</c15:sqref>
+                          <c15:sqref>Sheet1!$B$6:$G$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>20.298999999999999</c:v>
                       </c:pt>
@@ -1902,9 +1978,12 @@
                         <c:v>113.3</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>150.19999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>177.5</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>248</c:v>
                       </c:pt>
                     </c:numCache>
@@ -1966,13 +2045,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>2500</c:v>
                       </c:pt>
@@ -1983,9 +2062,12 @@
                         <c:v>30000</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>90000</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>250000</c:v>
                       </c:pt>
                     </c:numCache>
@@ -1996,13 +2078,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$7:$F$7</c15:sqref>
+                          <c15:sqref>Sheet1!$B$7:$G$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>17.399999999999999</c:v>
                       </c:pt>
@@ -2013,9 +2095,12 @@
                         <c:v>85.4</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>98.8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>177.2</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>222.4</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2081,13 +2166,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>2500</c:v>
                       </c:pt>
@@ -2098,9 +2183,12 @@
                         <c:v>30000</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>90000</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>250000</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2111,13 +2199,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$8:$F$8</c15:sqref>
+                          <c15:sqref>Sheet1!$B$8:$G$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>18.7</c:v>
                       </c:pt>
@@ -2128,9 +2216,12 @@
                         <c:v>120.5</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>158</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>194</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>255</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2196,13 +2287,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>2500</c:v>
                       </c:pt>
@@ -2213,9 +2304,12 @@
                         <c:v>30000</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>90000</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>250000</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2226,14 +2320,14 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$9:$F$9</c15:sqref>
+                          <c15:sqref>Sheet1!$B$9:$G$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="4">
+                      <c:ptCount val="6"/>
+                      <c:pt idx="5">
                         <c:v>84300</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2299,13 +2393,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>2500</c:v>
                       </c:pt>
@@ -2316,9 +2410,12 @@
                         <c:v>30000</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>90000</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>250000</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2329,13 +2426,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$10:$F$10</c15:sqref>
+                          <c15:sqref>Sheet1!$B$10:$G$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>168.4</c:v>
                       </c:pt>
@@ -2346,9 +2443,12 @@
                         <c:v>360</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>372.1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>480.9</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>785.9</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2414,13 +2514,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>2500</c:v>
                       </c:pt>
@@ -2431,9 +2531,12 @@
                         <c:v>30000</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>90000</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>250000</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2444,13 +2547,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$12:$F$12</c15:sqref>
+                          <c15:sqref>Sheet1!$B$12:$G$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>34.1</c:v>
                       </c:pt>
@@ -2461,9 +2564,12 @@
                         <c:v>167</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>175</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>187.2</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>320.8</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2529,13 +2635,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>2500</c:v>
                       </c:pt>
@@ -2546,9 +2652,12 @@
                         <c:v>30000</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>90000</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>250000</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2559,13 +2668,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$13:$F$13</c15:sqref>
+                          <c15:sqref>Sheet1!$B$13:$G$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>32.6</c:v>
                       </c:pt>
@@ -2576,9 +2685,12 @@
                         <c:v>15.4</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>148</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>156</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>168</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2646,13 +2758,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>2500</c:v>
                       </c:pt>
@@ -2663,9 +2775,12 @@
                         <c:v>30000</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>90000</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>250000</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2676,13 +2791,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$14:$F$14</c15:sqref>
+                          <c15:sqref>Sheet1!$B$14:$G$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>38.4</c:v>
                       </c:pt>
@@ -2693,9 +2808,12 @@
                         <c:v>210</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>282</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>620.79999999999995</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>864.1</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2763,13 +2881,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>2500</c:v>
                       </c:pt>
@@ -2780,9 +2898,12 @@
                         <c:v>30000</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>90000</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>250000</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2793,13 +2914,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$16:$F$16</c15:sqref>
+                          <c15:sqref>Sheet1!$B$16:$G$16</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2865,13 +2986,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>2500</c:v>
                       </c:pt>
@@ -2882,9 +3003,12 @@
                         <c:v>30000</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>90000</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>250000</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2895,13 +3019,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$17:$F$17</c15:sqref>
+                          <c15:sqref>Sheet1!$B$17:$G$17</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -3123,6 +3247,735 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Value of Default</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> GPU vs CPU (in </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" altLang="zh-CN" baseline="0"/>
+              <a:t>μ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>s)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Value of Default CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$1:$N$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>530.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1186.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4964.8999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A0D1-4D32-9D52-79D5A606DE9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Value of Defualt GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>230.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>761</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A0D1-4D32-9D52-79D5A606DE9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="826205487"/>
+        <c:axId val="825546095"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>def_init_cpu</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$J$1:$N$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5625</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>14400</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>22500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$J$2:$N$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>8.6</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>13.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>27.9</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-A0D1-4D32-9D52-79D5A606DE9F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>def_add_cpu</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$J$1:$N$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5625</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>14400</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>22500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$J$3:$N$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>521.9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1173</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2087</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3084</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4937</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-A0D1-4D32-9D52-79D5A606DE9F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="826205487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="825546095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="825546095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="826205487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3203,6 +4056,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4235,17 +5128,533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>145257</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>167084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>87313</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>65484</xdr:rowOff>
@@ -4281,7 +5690,7 @@
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>548731</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>78703</xdr:rowOff>
@@ -4304,6 +5713,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>150755</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>39853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>545564</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>71548</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0849D99B-8CD8-49CF-9B92-7F5A86D44150}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4609,19 +6054,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0D6C5A-0E62-44D8-8E96-7D51240B2460}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:31">
       <c r="B1">
         <f>50*50</f>
         <v>2500</v>
@@ -4635,70 +6080,133 @@
         <v>30000</v>
       </c>
       <c r="E1">
+        <f>200*200</f>
+        <v>40000</v>
+      </c>
+      <c r="F1">
         <f>300*300</f>
         <v>90000</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <f>500*500</f>
         <v>250000</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <f>50*50</f>
         <v>2500</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <f>75*75</f>
         <v>5625</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <f>100*80</f>
         <v>8000</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <f>120*120</f>
         <v>14400</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <f>150*150</f>
         <v>22500</v>
       </c>
-      <c r="O1">
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1">
         <v>2500</v>
       </c>
-      <c r="P1">
-        <v>8000</v>
+      <c r="R1">
+        <v>10000</v>
+      </c>
+      <c r="S1">
+        <f>150*150</f>
+        <v>22500</v>
+      </c>
+      <c r="T1">
+        <f>200*200</f>
+        <v>40000</v>
+      </c>
+      <c r="U1">
+        <f>300*300</f>
+        <v>90000</v>
+      </c>
+      <c r="V1">
+        <v>160000</v>
+      </c>
+      <c r="W1">
+        <f>500*500</f>
+        <v>250000</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1">
+        <v>2500</v>
+      </c>
+      <c r="AA1">
+        <v>10000</v>
+      </c>
+      <c r="AB1">
+        <f>150*150</f>
+        <v>22500</v>
+      </c>
+      <c r="AC1">
+        <f>200*200</f>
+        <v>40000</v>
+      </c>
+      <c r="AD1">
+        <f>300*300</f>
+        <v>90000</v>
+      </c>
+      <c r="AE1">
+        <f>500*500</f>
+        <v>250000</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>8.6</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>13.1</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>32</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>21</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>27.9</v>
       </c>
-      <c r="O2">
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2">
         <v>13.9</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>23.2</v>
       </c>
+      <c r="U2">
+        <v>14.6</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2">
+        <v>14.6</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1">
+    <row r="3" spans="1:31" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -4712,44 +6220,53 @@
         <v>268</v>
       </c>
       <c r="E3" s="2">
+        <v>321</v>
+      </c>
+      <c r="F3" s="2">
         <v>608</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>761</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>521.9</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1173</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>2087</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>3084</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>4937</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="2">
         <f>75.6+14+0</f>
         <v>89.6</v>
       </c>
+      <c r="Y3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1">
+    <row r="4" spans="1:31" s="2" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <f>B2+B3</f>
         <v>230.4</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:F4" si="0">C2+C3</f>
+        <f t="shared" ref="C4:G4" si="0">C2+C3</f>
         <v>240.3</v>
       </c>
       <c r="D4" s="1">
@@ -4758,41 +6275,87 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>608</v>
+        <v>321</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
+        <v>608</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
         <v>761</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2">
-        <f>I2+I3</f>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2">
+        <f>J2+J3</f>
         <v>530.5</v>
       </c>
-      <c r="J4" s="2">
-        <f t="shared" ref="J4:M4" si="1">J2+J3</f>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:N4" si="1">K2+K3</f>
         <v>1186.0999999999999</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <f t="shared" si="1"/>
         <v>2119</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <f t="shared" si="1"/>
         <v>3105</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <f t="shared" si="1"/>
         <v>4964.8999999999996</v>
       </c>
-      <c r="O4" s="2">
-        <f>O2+O3</f>
+      <c r="P4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>Q2+Q3</f>
         <v>103.5</v>
       </c>
+      <c r="R4" s="2">
+        <v>2.53E-2</v>
+      </c>
+      <c r="S4" s="2">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="T4" s="2">
+        <v>3.3029999999999997E-2</v>
+      </c>
+      <c r="U4" s="2">
+        <v>4.07E-2</v>
+      </c>
+      <c r="V4" s="2">
+        <v>3.78E-2</v>
+      </c>
+      <c r="W4" s="2">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>95.75</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>202.3</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>347.4</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>757</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>2149</v>
+      </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -4806,13 +6369,16 @@
         <v>88.2</v>
       </c>
       <c r="E5">
+        <v>95.2</v>
+      </c>
+      <c r="F5">
         <v>90.95</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -4826,13 +6392,16 @@
         <v>113.3</v>
       </c>
       <c r="E6">
+        <v>150.19999999999999</v>
+      </c>
+      <c r="F6">
         <v>177.5</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -4846,13 +6415,16 @@
         <v>85.4</v>
       </c>
       <c r="E7">
+        <v>98.8</v>
+      </c>
+      <c r="F7">
         <v>177.2</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>222.4</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4866,21 +6438,24 @@
         <v>120.5</v>
       </c>
       <c r="E8">
+        <v>158</v>
+      </c>
+      <c r="F8">
         <v>194</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>84300</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -4894,22 +6469,25 @@
         <v>360</v>
       </c>
       <c r="E10">
+        <v>372.1</v>
+      </c>
+      <c r="F10">
         <v>480.9</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>785.9</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:31">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1">
         <f>SUM(B5:B8)+B10</f>
         <v>243.899</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ref="C11:F11" si="2">SUM(C5:C8)+C10</f>
+        <f t="shared" ref="C11:G11" si="2">SUM(C5:C8)+C10</f>
         <v>258.399</v>
       </c>
       <c r="D11" s="1">
@@ -4918,35 +6496,81 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>1120.55</v>
+        <v>874.3</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="2"/>
+        <v>1120.55</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
         <v>1674.3</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>196.4</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>716</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1157000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>3483000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>7677000</v>
       </c>
-      <c r="O11">
+      <c r="P11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11">
         <v>77.8</v>
       </c>
+      <c r="R11">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="S11">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="T11">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="U11">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="V11">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="W11">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z11">
+        <v>77.8</v>
+      </c>
+      <c r="AA11">
+        <v>677</v>
+      </c>
+      <c r="AB11">
+        <v>1847</v>
+      </c>
+      <c r="AC11">
+        <v>6062</v>
+      </c>
+      <c r="AD11">
+        <v>31630</v>
+      </c>
+      <c r="AE11">
+        <v>257598</v>
+      </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -4960,13 +6584,16 @@
         <v>167</v>
       </c>
       <c r="E12">
+        <v>175</v>
+      </c>
+      <c r="F12">
         <v>187.2</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>320.8</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -4980,13 +6607,16 @@
         <v>15.4</v>
       </c>
       <c r="E13">
+        <v>148</v>
+      </c>
+      <c r="F13">
         <v>156</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -5000,22 +6630,25 @@
         <v>210</v>
       </c>
       <c r="E14">
+        <v>282</v>
+      </c>
+      <c r="F14">
         <v>620.79999999999995</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>864.1</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:31">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1">
         <f>SUM(B12:B14)</f>
         <v>105.1</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ref="C15:F15" si="3">SUM(C12:C14)</f>
+        <f t="shared" ref="C15:G15" si="3">SUM(C12:C14)</f>
         <v>213.30099999999999</v>
       </c>
       <c r="D15" s="1">
@@ -5024,52 +6657,98 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" si="3"/>
-        <v>964</v>
+        <v>605</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="3"/>
+        <v>964</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="3"/>
         <v>1352.9</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>227.9</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>798</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1773</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>3476</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>6793</v>
       </c>
-      <c r="O15">
+      <c r="P15" s="1"/>
+      <c r="Q15">
         <v>15.39</v>
       </c>
+      <c r="R15">
+        <v>2.989E-2</v>
+      </c>
+      <c r="S15">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="T15">
+        <v>0.04</v>
+      </c>
+      <c r="U15">
+        <v>0.108</v>
+      </c>
+      <c r="V15">
+        <v>0.2359</v>
+      </c>
+      <c r="W15">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="Y15" s="1"/>
+      <c r="Z15">
+        <v>15.39</v>
+      </c>
+      <c r="AA15">
+        <v>189.5</v>
+      </c>
+      <c r="AB15">
+        <v>317</v>
+      </c>
+      <c r="AC15">
+        <v>741</v>
+      </c>
+      <c r="AD15">
+        <v>2537</v>
+      </c>
+      <c r="AE15">
+        <v>12499</v>
+      </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>21</v>
+      </c>
+      <c r="I20">
+        <f>N11/D11</f>
+        <v>10003.909304143863</v>
       </c>
     </row>
   </sheetData>
@@ -5088,7 +6767,7 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
